--- a/ClassifierTesterResults/Batch/lrimaginary-Parsed_Results_nn.xlsx
+++ b/ClassifierTesterResults/Batch/lrimaginary-Parsed_Results_nn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="759">
   <si>
     <t>layout</t>
   </si>
@@ -133,34 +133,34 @@
     <t xml:space="preserve">100 </t>
   </si>
   <si>
-    <t>0.7840615896795672</t>
-  </si>
-  <si>
-    <t>0.7766164469554301</t>
-  </si>
-  <si>
-    <t>0.7716049382716049</t>
-  </si>
-  <si>
-    <t>0.8227808814400993</t>
-  </si>
-  <si>
-    <t>0.8210832346425331</t>
-  </si>
-  <si>
-    <t>0.8060812203669346</t>
-  </si>
-  <si>
-    <t>0.8258638172544344</t>
-  </si>
-  <si>
-    <t>0.8099639979620344</t>
-  </si>
-  <si>
-    <t>0.819909063866032</t>
-  </si>
-  <si>
-    <t>0.8189666464793195</t>
+    <t>0.8162944047213709</t>
+  </si>
+  <si>
+    <t>0.7944394227885534</t>
+  </si>
+  <si>
+    <t>0.8020546241897855</t>
+  </si>
+  <si>
+    <t>0.7848603351955307</t>
+  </si>
+  <si>
+    <t>0.8253822034299437</t>
+  </si>
+  <si>
+    <t>0.8096995700558571</t>
+  </si>
+  <si>
+    <t>0.8047156660980898</t>
+  </si>
+  <si>
+    <t>0.8144933503622565</t>
+  </si>
+  <si>
+    <t>0.812222068377714</t>
+  </si>
+  <si>
+    <t>0.8176029795531505</t>
   </si>
   <si>
     <t>0.6334099616858238</t>
@@ -223,7 +223,34 @@
     <t>0.7353665526323248</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>0.06518072704433983</t>
+  </si>
+  <si>
+    <t>0.013916001531938598</t>
+  </si>
+  <si>
+    <t>0.011849943745092137</t>
+  </si>
+  <si>
+    <t>0.06306179677172079</t>
+  </si>
+  <si>
+    <t>0.030454627792531126</t>
+  </si>
+  <si>
+    <t>0.03375985576921053</t>
+  </si>
+  <si>
+    <t>0.019327818223858664</t>
+  </si>
+  <si>
+    <t>0.03636046954173767</t>
+  </si>
+  <si>
+    <t>0.03161611210015509</t>
+  </si>
+  <si>
+    <t>0.028817705393729864</t>
   </si>
   <si>
     <t>0.06854336526184893</t>
@@ -286,34 +313,34 @@
     <t>0.019782537873751897</t>
   </si>
   <si>
-    <t>0.7319206558336994</t>
-  </si>
-  <si>
-    <t>0.8363295880149813</t>
-  </si>
-  <si>
-    <t>0.784074060219648</t>
-  </si>
-  <si>
-    <t>0.8416563172710713</t>
-  </si>
-  <si>
-    <t>0.8462199994707734</t>
-  </si>
-  <si>
-    <t>0.8019053375681019</t>
-  </si>
-  <si>
-    <t>0.8093739500715876</t>
-  </si>
-  <si>
-    <t>0.8245843809061242</t>
-  </si>
-  <si>
-    <t>0.8109076782335175</t>
-  </si>
-  <si>
-    <t>0.8258823679715266</t>
+    <t>0.8178392621870885</t>
+  </si>
+  <si>
+    <t>0.7987826274028761</t>
+  </si>
+  <si>
+    <t>0.8210842628198997</t>
+  </si>
+  <si>
+    <t>0.7944260883313647</t>
+  </si>
+  <si>
+    <t>0.8275143805965725</t>
+  </si>
+  <si>
+    <t>0.825172198979941</t>
+  </si>
+  <si>
+    <t>0.8086768613583961</t>
+  </si>
+  <si>
+    <t>0.8166041990047616</t>
+  </si>
+  <si>
+    <t>0.8076516290726816</t>
+  </si>
+  <si>
+    <t>0.8176415747213037</t>
   </si>
   <si>
     <t>0.6698728145239773</t>
@@ -376,34 +403,34 @@
     <t>0.7321220792313322</t>
   </si>
   <si>
-    <t>0.8152129402129402</t>
-  </si>
-  <si>
-    <t>0.7480767957629922</t>
-  </si>
-  <si>
-    <t>0.762426740556803</t>
-  </si>
-  <si>
-    <t>0.8124624856373583</t>
-  </si>
-  <si>
-    <t>0.8056745345901972</t>
-  </si>
-  <si>
-    <t>0.8036501462530383</t>
-  </si>
-  <si>
-    <t>0.8346532194907645</t>
-  </si>
-  <si>
-    <t>0.8003115518774132</t>
-  </si>
-  <si>
-    <t>0.822240149415067</t>
-  </si>
-  <si>
-    <t>0.8135110161166704</t>
+    <t>0.8196850044365572</t>
+  </si>
+  <si>
+    <t>0.7898372706137688</t>
+  </si>
+  <si>
+    <t>0.7907627653501333</t>
+  </si>
+  <si>
+    <t>0.7775909331539644</t>
+  </si>
+  <si>
+    <t>0.8231642917313705</t>
+  </si>
+  <si>
+    <t>0.798812612208671</t>
+  </si>
+  <si>
+    <t>0.7997478098143845</t>
+  </si>
+  <si>
+    <t>0.8096407221487331</t>
+  </si>
+  <si>
+    <t>0.8117582518499115</t>
+  </si>
+  <si>
+    <t>0.8158078617473539</t>
   </si>
   <si>
     <t>0.6138472289415686</t>
@@ -466,34 +493,34 @@
     <t>0.7335095802034792</t>
   </si>
   <si>
-    <t>0.770806100217865</t>
-  </si>
-  <si>
-    <t>0.7893424036281179</t>
-  </si>
-  <si>
-    <t>0.7703747657125635</t>
-  </si>
-  <si>
-    <t>0.8252140833696154</t>
-  </si>
-  <si>
-    <t>0.8252002018516776</t>
-  </si>
-  <si>
-    <t>0.8018248956551416</t>
-  </si>
-  <si>
-    <t>0.8211282186348855</t>
-  </si>
-  <si>
-    <t>0.8121680841125792</t>
-  </si>
-  <si>
-    <t>0.8163866842341814</t>
-  </si>
-  <si>
-    <t>0.8194310736216468</t>
+    <t>0.8176228833550867</t>
+  </si>
+  <si>
+    <t>0.7928189932225115</t>
+  </si>
+  <si>
+    <t>0.8044624475971643</t>
+  </si>
+  <si>
+    <t>0.7854695088176273</t>
+  </si>
+  <si>
+    <t>0.824057262947216</t>
+  </si>
+  <si>
+    <t>0.8114664854179481</t>
+  </si>
+  <si>
+    <t>0.8039760626293078</t>
+  </si>
+  <si>
+    <t>0.812695450534932</t>
+  </si>
+  <si>
+    <t>0.8091582336648788</t>
+  </si>
+  <si>
+    <t>0.8164361289144193</t>
   </si>
   <si>
     <t>0.6364773531009906</t>
@@ -556,34 +583,34 @@
     <t>0.732610931542862</t>
   </si>
   <si>
-    <t>0.7838896208461427</t>
-  </si>
-  <si>
-    <t>0.7766528576679681</t>
-  </si>
-  <si>
-    <t>0.7720068417706333</t>
-  </si>
-  <si>
-    <t>0.8225301446595558</t>
-  </si>
-  <si>
-    <t>0.8209819616578935</t>
-  </si>
-  <si>
-    <t>0.8062478964021026</t>
-  </si>
-  <si>
-    <t>0.8256852497747312</t>
-  </si>
-  <si>
-    <t>0.8100370290192034</t>
-  </si>
-  <si>
-    <t>0.8198407735341191</t>
-  </si>
-  <si>
-    <t>0.8190411094145477</t>
+    <t>0.8162428634167764</t>
+  </si>
+  <si>
+    <t>0.7947828065021745</t>
+  </si>
+  <si>
+    <t>0.8022095297125544</t>
+  </si>
+  <si>
+    <t>0.7851515291754366</t>
+  </si>
+  <si>
+    <t>0.8257620473790853</t>
+  </si>
+  <si>
+    <t>0.8098239953643309</t>
+  </si>
+  <si>
+    <t>0.8047407452154642</t>
+  </si>
+  <si>
+    <t>0.8144812358796042</t>
+  </si>
+  <si>
+    <t>0.8121922271160426</t>
+  </si>
+  <si>
+    <t>0.8175965027615029</t>
   </si>
   <si>
     <t>0.6337862376659357</t>
@@ -646,34 +673,34 @@
     <t>0.7353966289336906</t>
   </si>
   <si>
-    <t>0.7282563462338744</t>
-  </si>
-  <si>
-    <t>0.7505021971123668</t>
-  </si>
-  <si>
-    <t>0.7777777777777778</t>
-  </si>
-  <si>
-    <t>0.8042364990689013</t>
-  </si>
-  <si>
-    <t>0.8106880958272941</t>
-  </si>
-  <si>
-    <t>0.8128679081060034</t>
-  </si>
-  <si>
-    <t>0.832252744359689</t>
-  </si>
-  <si>
-    <t>0.8057805358273739</t>
-  </si>
-  <si>
-    <t>0.8265056609471516</t>
-  </si>
-  <si>
-    <t>0.8189799833257988</t>
+    <t>0.7961678583588696</t>
+  </si>
+  <si>
+    <t>0.7910499445525495</t>
+  </si>
+  <si>
+    <t>0.8095424462608701</t>
+  </si>
+  <si>
+    <t>0.7992830540037243</t>
+  </si>
+  <si>
+    <t>0.8302929310616042</t>
+  </si>
+  <si>
+    <t>0.8119743256794999</t>
+  </si>
+  <si>
+    <t>0.8094897178473659</t>
+  </si>
+  <si>
+    <t>0.8197928452405204</t>
+  </si>
+  <si>
+    <t>0.8152262345397686</t>
+  </si>
+  <si>
+    <t>0.820517046000192</t>
   </si>
   <si>
     <t>0.56183908045977</t>
@@ -736,6 +763,36 @@
     <t>0.7351478728283756</t>
   </si>
   <si>
+    <t>0.05341089315737421</t>
+  </si>
+  <si>
+    <t>0.03182306723363241</t>
+  </si>
+  <si>
+    <t>0.005785327833298931</t>
+  </si>
+  <si>
+    <t>0.04719167640579703</t>
+  </si>
+  <si>
+    <t>0.03263331851028114</t>
+  </si>
+  <si>
+    <t>0.03613135770475187</t>
+  </si>
+  <si>
+    <t>0.026532458131155335</t>
+  </si>
+  <si>
+    <t>0.03877132517062842</t>
+  </si>
+  <si>
+    <t>0.021611676911184517</t>
+  </si>
+  <si>
+    <t>0.030601376940679922</t>
+  </si>
+  <si>
     <t>0.02615553659658123</t>
   </si>
   <si>
@@ -796,34 +853,34 @@
     <t>0.01627369417102379</t>
   </si>
   <si>
-    <t>0.7256697408871323</t>
-  </si>
-  <si>
-    <t>0.7357469829379942</t>
-  </si>
-  <si>
-    <t>0.7837954477127035</t>
-  </si>
-  <si>
-    <t>0.7900073135728873</t>
-  </si>
-  <si>
-    <t>0.8105302849884893</t>
-  </si>
-  <si>
-    <t>0.8242087691541168</t>
-  </si>
-  <si>
-    <t>0.8375823758797099</t>
-  </si>
-  <si>
-    <t>0.8087582089853198</t>
-  </si>
-  <si>
-    <t>0.8167537626727821</t>
-  </si>
-  <si>
-    <t>0.8177949724982171</t>
+    <t>0.7819806763285025</t>
+  </si>
+  <si>
+    <t>0.8009353923751137</t>
+  </si>
+  <si>
+    <t>0.8016656569328324</t>
+  </si>
+  <si>
+    <t>0.7996328921911974</t>
+  </si>
+  <si>
+    <t>0.8463576320939336</t>
+  </si>
+  <si>
+    <t>0.8079771894354997</t>
+  </si>
+  <si>
+    <t>0.8143614876391947</t>
+  </si>
+  <si>
+    <t>0.8194162988767207</t>
+  </si>
+  <si>
+    <t>0.8186791979949873</t>
+  </si>
+  <si>
+    <t>0.8193868108731875</t>
   </si>
   <si>
     <t>0.4698681163797443</t>
@@ -886,34 +943,34 @@
     <t>0.7227425341026816</t>
   </si>
   <si>
-    <t>0.7417616659066728</t>
-  </si>
-  <si>
-    <t>0.7574221046443269</t>
-  </si>
-  <si>
-    <t>0.7713986013986013</t>
-  </si>
-  <si>
-    <t>0.8144981376833056</t>
-  </si>
-  <si>
-    <t>0.8090903499600222</t>
-  </si>
-  <si>
-    <t>0.8048907185832981</t>
-  </si>
-  <si>
-    <t>0.8274298810254977</t>
-  </si>
-  <si>
-    <t>0.8039136957622571</t>
-  </si>
-  <si>
-    <t>0.8304481102650242</t>
-  </si>
-  <si>
-    <t>0.8191981736873378</t>
+    <t>0.8108941036164019</t>
+  </si>
+  <si>
+    <t>0.783522926154411</t>
+  </si>
+  <si>
+    <t>0.8144121158059384</t>
+  </si>
+  <si>
+    <t>0.7955704671145847</t>
+  </si>
+  <si>
+    <t>0.8180214892764134</t>
+  </si>
+  <si>
+    <t>0.8124830097336249</t>
+  </si>
+  <si>
+    <t>0.8037328699043181</t>
+  </si>
+  <si>
+    <t>0.8164912960969037</t>
+  </si>
+  <si>
+    <t>0.8108929818832233</t>
+  </si>
+  <si>
+    <t>0.8189302695877794</t>
   </si>
   <si>
     <t>0.6426262626262625</t>
@@ -976,34 +1033,34 @@
     <t>0.7401270633440347</t>
   </si>
   <si>
-    <t>0.731109751121991</t>
-  </si>
-  <si>
-    <t>0.7454208479950161</t>
-  </si>
-  <si>
-    <t>0.7767749699157642</t>
-  </si>
-  <si>
-    <t>0.8005181462490981</t>
-  </si>
-  <si>
-    <t>0.8096312355675664</t>
-  </si>
-  <si>
-    <t>0.8139882896001206</t>
-  </si>
-  <si>
-    <t>0.8311087778640035</t>
-  </si>
-  <si>
-    <t>0.8060241853289286</t>
-  </si>
-  <si>
-    <t>0.8234804927479146</t>
-  </si>
-  <si>
-    <t>0.8179797104208703</t>
+    <t>0.7946656031769266</t>
+  </si>
+  <si>
+    <t>0.7905608013229882</t>
+  </si>
+  <si>
+    <t>0.8068576596516938</t>
+  </si>
+  <si>
+    <t>0.7962562172124492</t>
+  </si>
+  <si>
+    <t>0.8314559716534564</t>
+  </si>
+  <si>
+    <t>0.8094651236887556</t>
+  </si>
+  <si>
+    <t>0.8088525006911164</t>
+  </si>
+  <si>
+    <t>0.8177837126496073</t>
+  </si>
+  <si>
+    <t>0.8137474787345328</t>
+  </si>
+  <si>
+    <t>0.8186864232462234</t>
   </si>
   <si>
     <t>0.4601800945050373</t>
@@ -1066,34 +1123,34 @@
     <t>0.7297576833302319</t>
   </si>
   <si>
-    <t>0.7289964866051823</t>
-  </si>
-  <si>
-    <t>0.7506503570044835</t>
-  </si>
-  <si>
-    <t>0.7779678859033279</t>
-  </si>
-  <si>
-    <t>0.804134262527219</t>
-  </si>
-  <si>
-    <t>0.8106538374725524</t>
-  </si>
-  <si>
-    <t>0.8131127562249459</t>
-  </si>
-  <si>
-    <t>0.8325010406933285</t>
-  </si>
-  <si>
-    <t>0.8058148151591517</t>
-  </si>
-  <si>
-    <t>0.826441275186789</t>
-  </si>
-  <si>
-    <t>0.8190913714094367</t>
+    <t>0.7960408432147562</t>
+  </si>
+  <si>
+    <t>0.791853151246974</t>
+  </si>
+  <si>
+    <t>0.8095266144385166</t>
+  </si>
+  <si>
+    <t>0.7992219711313032</t>
+  </si>
+  <si>
+    <t>0.8306469541857432</t>
+  </si>
+  <si>
+    <t>0.8118742851617782</t>
+  </si>
+  <si>
+    <t>0.809510276933908</t>
+  </si>
+  <si>
+    <t>0.8197731562912939</t>
+  </si>
+  <si>
+    <t>0.8152526341382004</t>
+  </si>
+  <si>
+    <t>0.8205014790146089</t>
   </si>
   <si>
     <t>0.5592993578095659</t>
@@ -1156,34 +1213,34 @@
     <t>0.7353258276656935</t>
   </si>
   <si>
-    <t>0.6276737411568872</t>
-  </si>
-  <si>
-    <t>0.6817011927181419</t>
-  </si>
-  <si>
-    <t>0.7728395061728395</t>
-  </si>
-  <si>
-    <t>0.7986654252017381</t>
-  </si>
-  <si>
-    <t>0.8017727298169949</t>
-  </si>
-  <si>
-    <t>0.7789092741473693</t>
-  </si>
-  <si>
-    <t>0.7854823669688308</t>
-  </si>
-  <si>
-    <t>0.7727533139666004</t>
-  </si>
-  <si>
-    <t>0.7967895853829029</t>
-  </si>
-  <si>
-    <t>0.7932864862791505</t>
+    <t>0.7073799795709907</t>
+  </si>
+  <si>
+    <t>0.6823921913250894</t>
+  </si>
+  <si>
+    <t>0.7781591804441838</t>
+  </si>
+  <si>
+    <t>0.7692861576660459</t>
+  </si>
+  <si>
+    <t>0.7967966993339839</t>
+  </si>
+  <si>
+    <t>0.7807377528124396</t>
+  </si>
+  <si>
+    <t>0.7639113080617312</t>
+  </si>
+  <si>
+    <t>0.7874966046625818</t>
+  </si>
+  <si>
+    <t>0.7867060154440808</t>
+  </si>
+  <si>
+    <t>0.791986897648842</t>
   </si>
   <si>
     <t>0.5367816091954023</t>
@@ -1246,6 +1303,36 @@
     <t>0.6844616940434454</t>
   </si>
   <si>
+    <t>0.10454614119013393</t>
+  </si>
+  <si>
+    <t>0.09032167431639272</t>
+  </si>
+  <si>
+    <t>0.01514281528842968</t>
+  </si>
+  <si>
+    <t>0.06934248409300024</t>
+  </si>
+  <si>
+    <t>0.026321869873460465</t>
+  </si>
+  <si>
+    <t>0.040434400518051854</t>
+  </si>
+  <si>
+    <t>0.02873038678676662</t>
+  </si>
+  <si>
+    <t>0.028277441976958344</t>
+  </si>
+  <si>
+    <t>0.028300890643089903</t>
+  </si>
+  <si>
+    <t>0.02151564427605837</t>
+  </si>
+  <si>
     <t>0.014585578377544947</t>
   </si>
   <si>
@@ -1306,34 +1393,34 @@
     <t>0.016984951683534408</t>
   </si>
   <si>
-    <t>0.7246889181671791</t>
-  </si>
-  <si>
-    <t>0.676695796920516</t>
-  </si>
-  <si>
-    <t>0.7936348610608888</t>
-  </si>
-  <si>
-    <t>0.8380250593365347</t>
-  </si>
-  <si>
-    <t>0.798510227302797</t>
-  </si>
-  <si>
-    <t>0.7794401457845391</t>
-  </si>
-  <si>
-    <t>0.7662433976987596</t>
-  </si>
-  <si>
-    <t>0.7770087626071289</t>
-  </si>
-  <si>
-    <t>0.7907774310646599</t>
-  </si>
-  <si>
-    <t>0.7728816412541023</t>
+    <t>0.7691304347826087</t>
+  </si>
+  <si>
+    <t>0.7207718066100639</t>
+  </si>
+  <si>
+    <t>0.7161275538294423</t>
+  </si>
+  <si>
+    <t>0.7840246734532431</t>
+  </si>
+  <si>
+    <t>0.7733774387712743</t>
+  </si>
+  <si>
+    <t>0.7649697946918512</t>
+  </si>
+  <si>
+    <t>0.7494359833328164</t>
+  </si>
+  <si>
+    <t>0.7648604393604167</t>
+  </si>
+  <si>
+    <t>0.7771215538847118</t>
+  </si>
+  <si>
+    <t>0.7830146981672368</t>
   </si>
   <si>
     <t>0.23622269203664553</t>
@@ -1396,34 +1483,34 @@
     <t>0.6732497434586435</t>
   </si>
   <si>
-    <t>0.6278302147154605</t>
-  </si>
-  <si>
-    <t>0.6866237836054759</t>
-  </si>
-  <si>
-    <t>0.7605421450530147</t>
-  </si>
-  <si>
-    <t>0.7772866127583109</t>
-  </si>
-  <si>
-    <t>0.8018650787993417</t>
-  </si>
-  <si>
-    <t>0.7753942317667808</t>
-  </si>
-  <si>
-    <t>0.7929001952276872</t>
-  </si>
-  <si>
-    <t>0.7711940891314134</t>
-  </si>
-  <si>
-    <t>0.797060102536669</t>
-  </si>
-  <si>
-    <t>0.8040078349680336</t>
+    <t>0.7019387293238684</t>
+  </si>
+  <si>
+    <t>0.6841229218960312</t>
+  </si>
+  <si>
+    <t>0.8190867020823809</t>
+  </si>
+  <si>
+    <t>0.7583482587804818</t>
+  </si>
+  <si>
+    <t>0.810578513006166</t>
+  </si>
+  <si>
+    <t>0.7868059330375506</t>
+  </si>
+  <si>
+    <t>0.7689980085039764</t>
+  </si>
+  <si>
+    <t>0.797130429318133</t>
+  </si>
+  <si>
+    <t>0.7903178188089486</t>
+  </si>
+  <si>
+    <t>0.7951054061226739</t>
   </si>
   <si>
     <t>0.47009803921568627</t>
@@ -1486,34 +1573,34 @@
     <t>0.6927275653792748</t>
   </si>
   <si>
-    <t>0.6691819291819292</t>
-  </si>
-  <si>
-    <t>0.6813702239789196</t>
-  </si>
-  <si>
-    <t>0.7755316867173742</t>
-  </si>
-  <si>
-    <t>0.8055507103126152</t>
-  </si>
-  <si>
-    <t>0.7997798535708371</t>
-  </si>
-  <si>
-    <t>0.7769849540031682</t>
-  </si>
-  <si>
-    <t>0.7787890854842122</t>
-  </si>
-  <si>
-    <t>0.7736332805261904</t>
-  </si>
-  <si>
-    <t>0.7932622110888873</t>
-  </si>
-  <si>
-    <t>0.7876192165836384</t>
+    <t>0.7300774731755941</t>
+  </si>
+  <si>
+    <t>0.6948561640860971</t>
+  </si>
+  <si>
+    <t>0.7616737797431471</t>
+  </si>
+  <si>
+    <t>0.7705190736496317</t>
+  </si>
+  <si>
+    <t>0.7897367903301744</t>
+  </si>
+  <si>
+    <t>0.7754039383672323</t>
+  </si>
+  <si>
+    <t>0.7589197783237379</t>
+  </si>
+  <si>
+    <t>0.7799695896026483</t>
+  </si>
+  <si>
+    <t>0.7826992762079191</t>
+  </si>
+  <si>
+    <t>0.7887595359122221</t>
   </si>
   <si>
     <t>0.2964553048308325</t>
@@ -1576,34 +1663,34 @@
     <t>0.6771562146756496</t>
   </si>
   <si>
-    <t>0.6284219001610306</t>
-  </si>
-  <si>
-    <t>0.6817278263229446</t>
-  </si>
-  <si>
-    <t>0.7730928812351924</t>
-  </si>
-  <si>
-    <t>0.7984269319640256</t>
-  </si>
-  <si>
-    <t>0.8015948519521848</t>
-  </si>
-  <si>
-    <t>0.7790589577249681</t>
-  </si>
-  <si>
-    <t>0.785245218696082</t>
-  </si>
-  <si>
-    <t>0.7727987560029578</t>
-  </si>
-  <si>
-    <t>0.7966897277613341</t>
-  </si>
-  <si>
-    <t>0.793269058260658</t>
+    <t>0.7069389547650418</t>
+  </si>
+  <si>
+    <t>0.6850387694201114</t>
+  </si>
+  <si>
+    <t>0.7779078571670542</t>
+  </si>
+  <si>
+    <t>0.7693808101266796</t>
+  </si>
+  <si>
+    <t>0.7967535578319186</t>
+  </si>
+  <si>
+    <t>0.7805432427857217</t>
+  </si>
+  <si>
+    <t>0.7638136687887498</t>
+  </si>
+  <si>
+    <t>0.7872440088262654</t>
+  </si>
+  <si>
+    <t>0.7865985055717956</t>
+  </si>
+  <si>
+    <t>0.7918724362721521</t>
   </si>
   <si>
     <t>0.5288616800711544</t>
@@ -1666,34 +1753,34 @@
     <t>0.6843253284012609</t>
   </si>
   <si>
-    <t>0.46109030378693294</t>
-  </si>
-  <si>
-    <t>0.6516007532956686</t>
-  </si>
-  <si>
-    <t>0.737037037037037</t>
-  </si>
-  <si>
-    <t>0.8134698944754811</t>
-  </si>
-  <si>
-    <t>0.8225515401656827</t>
-  </si>
-  <si>
-    <t>0.796801346801347</t>
-  </si>
-  <si>
-    <t>0.8151787640269227</t>
-  </si>
-  <si>
-    <t>0.8258162467583231</t>
-  </si>
-  <si>
-    <t>0.8290634902544678</t>
-  </si>
-  <si>
-    <t>0.8301456931169716</t>
+    <t>0.5904159573260697</t>
+  </si>
+  <si>
+    <t>0.5800654210170249</t>
+  </si>
+  <si>
+    <t>0.7720828150694555</t>
+  </si>
+  <si>
+    <t>0.7508845437616387</t>
+  </si>
+  <si>
+    <t>0.8160171328138734</t>
+  </si>
+  <si>
+    <t>0.7987324755272276</t>
+  </si>
+  <si>
+    <t>0.8142500939468501</t>
+  </si>
+  <si>
+    <t>0.8215440819268801</t>
+  </si>
+  <si>
+    <t>0.8098049752948654</t>
+  </si>
+  <si>
+    <t>0.8323609618411769</t>
   </si>
   <si>
     <t>0.4969348659003831</t>
@@ -1756,6 +1843,36 @@
     <t>0.693821229449796</t>
   </si>
   <si>
+    <t>0.054331966555732754</t>
+  </si>
+  <si>
+    <t>0.06355922462776654</t>
+  </si>
+  <si>
+    <t>0.0425844269233837</t>
+  </si>
+  <si>
+    <t>0.06166157874054866</t>
+  </si>
+  <si>
+    <t>0.03370388474088918</t>
+  </si>
+  <si>
+    <t>0.02751479756803266</t>
+  </si>
+  <si>
+    <t>0.029216127745203827</t>
+  </si>
+  <si>
+    <t>0.02388057211853381</t>
+  </si>
+  <si>
+    <t>0.01801693273847449</t>
+  </si>
+  <si>
+    <t>0.02077116669288043</t>
+  </si>
+  <si>
     <t>0.031320286556248224</t>
   </si>
   <si>
@@ -1816,34 +1933,34 @@
     <t>0.011029563028937213</t>
   </si>
   <si>
-    <t>0.6268921095008051</t>
-  </si>
-  <si>
-    <t>0.7919683728672493</t>
-  </si>
-  <si>
-    <t>0.7511229704997707</t>
-  </si>
-  <si>
-    <t>0.8246060330076723</t>
-  </si>
-  <si>
-    <t>0.8397237437485116</t>
-  </si>
-  <si>
-    <t>0.7590144355388766</t>
-  </si>
-  <si>
-    <t>0.8372072735391417</t>
-  </si>
-  <si>
-    <t>0.8515636021614611</t>
-  </si>
-  <si>
-    <t>0.8235856820014119</t>
-  </si>
-  <si>
-    <t>0.8543044592793999</t>
+    <t>0.5556873078612209</t>
+  </si>
+  <si>
+    <t>0.625878945553961</t>
+  </si>
+  <si>
+    <t>0.8103736015186396</t>
+  </si>
+  <si>
+    <t>0.7007567290996822</t>
+  </si>
+  <si>
+    <t>0.8171927444701417</t>
+  </si>
+  <si>
+    <t>0.8157883218727674</t>
+  </si>
+  <si>
+    <t>0.8202280881334201</t>
+  </si>
+  <si>
+    <t>0.8194258223863212</t>
+  </si>
+  <si>
+    <t>0.8367380952380952</t>
+  </si>
+  <si>
+    <t>0.8423983502318343</t>
   </si>
   <si>
     <t>0.4710648008322426</t>
@@ -1906,34 +2023,34 @@
     <t>0.6777698888502457</t>
   </si>
   <si>
-    <t>0.46272761182668004</t>
-  </si>
-  <si>
-    <t>0.6198763871330244</t>
-  </si>
-  <si>
-    <t>0.7356167695473251</t>
-  </si>
-  <si>
-    <t>0.8080013236194251</t>
-  </si>
-  <si>
-    <t>0.8107889684516397</t>
-  </si>
-  <si>
-    <t>0.813699967199437</t>
-  </si>
-  <si>
-    <t>0.7990736453857012</t>
-  </si>
-  <si>
-    <t>0.8111180314899004</t>
-  </si>
-  <si>
-    <t>0.8314890992458946</t>
-  </si>
-  <si>
-    <t>0.8139559993202728</t>
+    <t>0.5975841547656462</t>
+  </si>
+  <si>
+    <t>0.583876938823599</t>
+  </si>
+  <si>
+    <t>0.7517973039057323</t>
+  </si>
+  <si>
+    <t>0.7777146878255221</t>
+  </si>
+  <si>
+    <t>0.813258993997301</t>
+  </si>
+  <si>
+    <t>0.790651479591571</t>
+  </si>
+  <si>
+    <t>0.8104483653368286</t>
+  </si>
+  <si>
+    <t>0.8200771490619916</t>
+  </si>
+  <si>
+    <t>0.7914676395310726</t>
+  </si>
+  <si>
+    <t>0.823860886945121</t>
   </si>
   <si>
     <t>0.4952533577533577</t>
@@ -1996,34 +2113,34 @@
     <t>0.697950207502516</t>
   </si>
   <si>
-    <t>0.5156941296511579</t>
-  </si>
-  <si>
-    <t>0.6945093227271446</t>
-  </si>
-  <si>
-    <t>0.7410495670156005</t>
-  </si>
-  <si>
-    <t>0.8124502235491465</t>
-  </si>
-  <si>
-    <t>0.8243058288512835</t>
-  </si>
-  <si>
-    <t>0.7839537038056813</t>
-  </si>
-  <si>
-    <t>0.8169914522692192</t>
-  </si>
-  <si>
-    <t>0.8293195296016799</t>
-  </si>
-  <si>
-    <t>0.8272364816969078</t>
-  </si>
-  <si>
-    <t>0.8336244007127757</t>
+    <t>0.5618532159554638</t>
+  </si>
+  <si>
+    <t>0.5935469940700612</t>
+  </si>
+  <si>
+    <t>0.7793441413160139</t>
+  </si>
+  <si>
+    <t>0.7349849516324662</t>
+  </si>
+  <si>
+    <t>0.8144165330295188</t>
+  </si>
+  <si>
+    <t>0.7991084781799015</t>
+  </si>
+  <si>
+    <t>0.8140047190703227</t>
+  </si>
+  <si>
+    <t>0.819388598066879</t>
+  </si>
+  <si>
+    <t>0.8132887956842276</t>
+  </si>
+  <si>
+    <t>0.8328543409441789</t>
   </si>
   <si>
     <t>0.46394307484476693</t>
@@ -2086,34 +2203,34 @@
     <t>0.6859987527978381</t>
   </si>
   <si>
-    <t>0.4632777045820524</t>
-  </si>
-  <si>
-    <t>0.6515671092579268</t>
-  </si>
-  <si>
-    <t>0.7368139965274431</t>
-  </si>
-  <si>
-    <t>0.8130116456022959</t>
-  </si>
-  <si>
-    <t>0.8222080506521525</t>
-  </si>
-  <si>
-    <t>0.7963485609823356</t>
-  </si>
-  <si>
-    <t>0.8155269969862244</t>
-  </si>
-  <si>
-    <t>0.8258864829584199</t>
-  </si>
-  <si>
-    <t>0.8290422833515683</t>
-  </si>
-  <si>
-    <t>0.8302444493762149</t>
+    <t>0.5910759771629337</t>
+  </si>
+  <si>
+    <t>0.5831410992705603</t>
+  </si>
+  <si>
+    <t>0.7723872364891674</t>
+  </si>
+  <si>
+    <t>0.7509326596694874</t>
+  </si>
+  <si>
+    <t>0.8160753821379719</t>
+  </si>
+  <si>
+    <t>0.7990775448354384</t>
+  </si>
+  <si>
+    <t>0.8143582838342958</t>
+  </si>
+  <si>
+    <t>0.8215033924918098</t>
+  </si>
+  <si>
+    <t>0.8100582154531649</t>
+  </si>
+  <si>
+    <t>0.8324577954195245</t>
   </si>
   <si>
     <t>0.4964389684087208</t>
@@ -2634,70 +2751,70 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="L2" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M2" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="N2" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="O2" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="P2" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="R2" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="S2" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="T2" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="U2" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="V2" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="W2" t="s">
-        <v>69</v>
+        <v>609</v>
       </c>
       <c r="X2" t="s">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="Y2" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="Z2" t="s">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="AA2" t="s">
-        <v>690</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -2714,73 +2831,73 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="L3" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="M3" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="N3" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="O3" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="P3" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
+        <v>430</v>
       </c>
       <c r="R3" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="S3" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="T3" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="U3" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="V3" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="W3" t="s">
-        <v>69</v>
+        <v>610</v>
       </c>
       <c r="X3" t="s">
-        <v>601</v>
+        <v>640</v>
       </c>
       <c r="Y3" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="Z3" t="s">
-        <v>661</v>
+        <v>700</v>
       </c>
       <c r="AA3" t="s">
-        <v>691</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -2797,73 +2914,73 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="L4" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="M4" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="N4" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="O4" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="P4" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>431</v>
       </c>
       <c r="R4" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="S4" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="T4" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="U4" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="V4" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>611</v>
       </c>
       <c r="X4" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="Y4" t="s">
-        <v>632</v>
+        <v>671</v>
       </c>
       <c r="Z4" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="AA4" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -2880,73 +2997,73 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J5" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="L5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="N5" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="O5" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="P5" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="Q5" t="s">
-        <v>69</v>
+        <v>432</v>
       </c>
       <c r="R5" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="S5" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="T5" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="U5" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="V5" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="W5" t="s">
-        <v>69</v>
+        <v>612</v>
       </c>
       <c r="X5" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
       <c r="Y5" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="Z5" t="s">
-        <v>663</v>
+        <v>702</v>
       </c>
       <c r="AA5" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -2963,73 +3080,73 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="L6" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="M6" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="N6" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="O6" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="P6" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="Q6" t="s">
-        <v>69</v>
+        <v>433</v>
       </c>
       <c r="R6" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="S6" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="T6" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="U6" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="V6" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>613</v>
       </c>
       <c r="X6" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="Y6" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="Z6" t="s">
-        <v>664</v>
+        <v>703</v>
       </c>
       <c r="AA6" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -3046,73 +3163,73 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="J7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="L7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="M7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="O7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="P7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="Q7" t="s">
-        <v>69</v>
+        <v>434</v>
       </c>
       <c r="R7" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="S7" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="T7" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="U7" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="V7" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="W7" t="s">
-        <v>69</v>
+        <v>614</v>
       </c>
       <c r="X7" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="Y7" t="s">
-        <v>635</v>
+        <v>674</v>
       </c>
       <c r="Z7" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="AA7" t="s">
-        <v>695</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -3129,73 +3246,73 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="J8" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="L8" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="M8" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="N8" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="O8" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="P8" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="Q8" t="s">
-        <v>69</v>
+        <v>435</v>
       </c>
       <c r="R8" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="S8" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="T8" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="U8" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="V8" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="W8" t="s">
-        <v>69</v>
+        <v>615</v>
       </c>
       <c r="X8" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
       <c r="Y8" t="s">
-        <v>636</v>
+        <v>675</v>
       </c>
       <c r="Z8" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="AA8" t="s">
-        <v>696</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -3212,73 +3329,73 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I9" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="J9" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="L9" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="M9" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="N9" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="O9" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="P9" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="Q9" t="s">
-        <v>69</v>
+        <v>436</v>
       </c>
       <c r="R9" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="S9" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="T9" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="U9" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="V9" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="W9" t="s">
-        <v>69</v>
+        <v>616</v>
       </c>
       <c r="X9" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="Y9" t="s">
-        <v>637</v>
+        <v>676</v>
       </c>
       <c r="Z9" t="s">
-        <v>667</v>
+        <v>706</v>
       </c>
       <c r="AA9" t="s">
-        <v>697</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -3295,73 +3412,73 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="J10" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="L10" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M10" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="N10" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="O10" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="P10" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="Q10" t="s">
-        <v>69</v>
+        <v>437</v>
       </c>
       <c r="R10" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="S10" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="T10" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="U10" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="V10" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="W10" t="s">
-        <v>69</v>
+        <v>617</v>
       </c>
       <c r="X10" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
       <c r="Y10" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
       <c r="Z10" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="AA10" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -3378,73 +3495,73 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="J11" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="L11" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="M11" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="N11" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="O11" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="P11" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>438</v>
       </c>
       <c r="R11" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="S11" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="T11" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="U11" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="V11" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="W11" t="s">
-        <v>69</v>
+        <v>618</v>
       </c>
       <c r="X11" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="Y11" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="Z11" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="AA11" t="s">
-        <v>699</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -3461,73 +3578,73 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H12" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="J12" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="K12" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="L12" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="M12" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="N12" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="O12" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="P12" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="Q12" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="R12" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="S12" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="T12" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="U12" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="V12" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="W12" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
       <c r="X12" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="Y12" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="Z12" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="AA12" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -3544,73 +3661,73 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J13" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K13" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="L13" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="M13" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="N13" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="O13" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="P13" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="Q13" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="R13" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="S13" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="T13" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="U13" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="V13" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="W13" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
       <c r="X13" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="Y13" t="s">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="Z13" t="s">
-        <v>671</v>
+        <v>710</v>
       </c>
       <c r="AA13" t="s">
-        <v>701</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -3627,73 +3744,73 @@
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H14" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="I14" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J14" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K14" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L14" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="M14" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="N14" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="O14" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="P14" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="Q14" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="R14" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="S14" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="T14" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="U14" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="V14" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="W14" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="X14" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="Y14" t="s">
-        <v>642</v>
+        <v>681</v>
       </c>
       <c r="Z14" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="AA14" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -3710,73 +3827,73 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J15" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="K15" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="L15" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="M15" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="N15" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="O15" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="P15" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="Q15" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="R15" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="S15" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="T15" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="U15" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="V15" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="W15" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
       <c r="X15" t="s">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="Y15" t="s">
-        <v>643</v>
+        <v>682</v>
       </c>
       <c r="Z15" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="AA15" t="s">
-        <v>703</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -3793,73 +3910,73 @@
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="I16" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="J16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="K16" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="L16" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="M16" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="N16" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="O16" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="P16" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="Q16" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="R16" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="S16" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="T16" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="U16" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="V16" t="s">
-        <v>564</v>
+        <v>593</v>
       </c>
       <c r="W16" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
       <c r="X16" t="s">
-        <v>614</v>
+        <v>653</v>
       </c>
       <c r="Y16" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="Z16" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="AA16" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -3876,73 +3993,73 @@
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="J17" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K17" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="L17" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="M17" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="N17" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="O17" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="P17" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="Q17" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="R17" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="S17" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="T17" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="U17" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="V17" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="W17" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="X17" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="Y17" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="Z17" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="AA17" t="s">
-        <v>705</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -3959,73 +4076,73 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H18" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I18" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K18" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L18" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="M18" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="N18" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="O18" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="P18" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="Q18" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="R18" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="S18" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="T18" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="U18" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="V18" t="s">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="W18" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="X18" t="s">
-        <v>616</v>
+        <v>655</v>
       </c>
       <c r="Y18" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="Z18" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="AA18" t="s">
-        <v>706</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4042,73 +4159,73 @@
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K19" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L19" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="M19" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="N19" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="O19" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="P19" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="Q19" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="R19" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="S19" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="T19" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="U19" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="V19" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="W19" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="X19" t="s">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="Y19" t="s">
-        <v>647</v>
+        <v>686</v>
       </c>
       <c r="Z19" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="AA19" t="s">
-        <v>707</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -4125,73 +4242,73 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="K20" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="L20" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="M20" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="N20" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="O20" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="P20" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="Q20" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="R20" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="S20" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="T20" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="U20" t="s">
-        <v>538</v>
+        <v>567</v>
       </c>
       <c r="V20" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="W20" t="s">
-        <v>588</v>
+        <v>627</v>
       </c>
       <c r="X20" t="s">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="Y20" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="Z20" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="AA20" t="s">
-        <v>708</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -4208,73 +4325,73 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K21" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="L21" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="M21" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="N21" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="O21" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="P21" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="Q21" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="R21" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="S21" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="T21" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="U21" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="V21" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="W21" t="s">
-        <v>589</v>
+        <v>628</v>
       </c>
       <c r="X21" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="Y21" t="s">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="Z21" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="AA21" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -4291,73 +4408,73 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="L22" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="M22" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="N22" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="O22" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="P22" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="Q22" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="R22" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="S22" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="T22" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="U22" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="V22" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="W22" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="X22" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
       <c r="Y22" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="Z22" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="AA22" t="s">
-        <v>710</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -4374,73 +4491,73 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H23" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K23" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="L23" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="M23" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="N23" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="O23" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="P23" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="Q23" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="R23" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="S23" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="T23" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="U23" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="V23" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="W23" t="s">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="X23" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="Y23" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="Z23" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="AA23" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -4457,73 +4574,73 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="M24" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="N24" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="O24" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="P24" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="Q24" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="R24" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="S24" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="T24" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="U24" t="s">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="V24" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="W24" t="s">
-        <v>592</v>
+        <v>631</v>
       </c>
       <c r="X24" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="Y24" t="s">
-        <v>652</v>
+        <v>691</v>
       </c>
       <c r="Z24" t="s">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="AA24" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -4540,73 +4657,73 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H25" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="M25" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="N25" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="O25" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="P25" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="Q25" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="R25" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="S25" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="T25" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="U25" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="V25" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="W25" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="X25" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="Y25" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
       <c r="Z25" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="AA25" t="s">
-        <v>713</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -4623,73 +4740,73 @@
         <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H26" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="M26" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="N26" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="O26" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="P26" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="Q26" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="R26" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="S26" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="T26" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="U26" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="V26" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="W26" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="X26" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="Y26" t="s">
-        <v>654</v>
+        <v>693</v>
       </c>
       <c r="Z26" t="s">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="AA26" t="s">
-        <v>714</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -4706,73 +4823,73 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="M27" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="N27" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="O27" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="P27" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="Q27" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="R27" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="S27" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="T27" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="U27" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="V27" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="W27" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="X27" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
       <c r="Y27" t="s">
-        <v>655</v>
+        <v>694</v>
       </c>
       <c r="Z27" t="s">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="AA27" t="s">
-        <v>715</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -4789,73 +4906,73 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H28" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="M28" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="N28" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="O28" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="P28" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="Q28" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="R28" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="S28" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="T28" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="U28" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="V28" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="W28" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
       <c r="X28" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="Y28" t="s">
-        <v>656</v>
+        <v>695</v>
       </c>
       <c r="Z28" t="s">
-        <v>686</v>
+        <v>725</v>
       </c>
       <c r="AA28" t="s">
-        <v>716</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -4872,73 +4989,73 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H29" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="J29" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="M29" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="N29" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="O29" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="P29" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="Q29" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="R29" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="S29" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="T29" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="U29" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="V29" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="W29" t="s">
-        <v>597</v>
+        <v>636</v>
       </c>
       <c r="X29" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="Y29" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="Z29" t="s">
-        <v>687</v>
+        <v>726</v>
       </c>
       <c r="AA29" t="s">
-        <v>717</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -4955,73 +5072,73 @@
         <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H30" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="N30" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="O30" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="P30" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="Q30" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="R30" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="S30" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="T30" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="U30" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="V30" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="W30" t="s">
-        <v>598</v>
+        <v>637</v>
       </c>
       <c r="X30" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="Y30" t="s">
-        <v>658</v>
+        <v>697</v>
       </c>
       <c r="Z30" t="s">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="AA30" t="s">
-        <v>718</v>
+        <v>757</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5038,73 +5155,73 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G31" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="N31" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="O31" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="P31" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="Q31" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="R31" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="S31" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="T31" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="U31" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="V31" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
       <c r="W31" t="s">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="X31" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="Y31" t="s">
-        <v>659</v>
+        <v>698</v>
       </c>
       <c r="Z31" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="AA31" t="s">
-        <v>719</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
